--- a/Data/Delphi round 1/response sheets/Liam Pl - give your expert opinion on woodland condition112.xlsx
+++ b/Data/Delphi round 1/response sheets/Liam Pl - give your expert opinion on woodland condition112.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Delphi round 1/response sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="855" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEA8B1DE-C645-43AE-B5E3-3D61F36BD375}"/>
+  <xr:revisionPtr revIDLastSave="869" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AEE9EC9-04B0-4DB6-B603-B87FBE119302}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4815" windowWidth="16440" windowHeight="28320" firstSheet="13" activeTab="14" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age distribution" sheetId="20" r:id="rId1"/>
@@ -277,6 +277,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2: Enter values in the table below to describe that </t>
     </r>
@@ -286,6 +287,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>typical</t>
     </r>
@@ -294,6 +296,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> relationship</t>
     </r>
@@ -954,12 +957,14 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -973,7 +978,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4576,21 +4581,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4603,24 +4605,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4981,18 +4980,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -5005,18 +5001,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -5045,7 +5038,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5466,7 +5459,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -22600,8 +22593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3248C487-FA81-4908-B7DC-7E550BAD9141}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22927,7 +22920,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23009,7 +23002,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>10</v>
@@ -23031,7 +23024,7 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
         <v>15</v>
@@ -23054,10 +23047,10 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -23068,22 +23061,26 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I15" s="29" t="s">
         <v>12</v>
@@ -23105,12 +23102,8 @@
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>80</v>
-      </c>
-      <c r="B17" s="2">
-        <v>90</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13" t="s">
         <v>42</v>
@@ -23131,12 +23124,8 @@
       <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>100</v>
-      </c>
-      <c r="B19" s="2">
-        <v>100</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13" t="s">
         <v>44</v>
@@ -23359,7 +23348,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23437,10 +23426,10 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>10</v>
@@ -23462,10 +23451,10 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -23485,10 +23474,10 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -23499,19 +23488,15 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2">
-        <v>100</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="I14" s="29" t="s">
         <v>12</v>
       </c>
@@ -23885,8 +23870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E3BDB2-4936-4583-A0D1-731A826C7FE6}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26965,6 +26950,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
+      <UserInfo>
+        <DisplayName>Christine Reid</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Liam Plummer</DisplayName>
+        <AccountId>63</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF102A4A1803344B8D888EB900B09227" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43bc291949bcf5a898aed47fdf38e56c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="090e8724-afd2-4a00-8d2e-c87448cad135" xmlns:ns3="cce065d8-4207-498d-8ddb-77753710233a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a89575b99fa510669e25d545522f68e" ns2:_="" ns3:_="">
     <xsd:import namespace="090e8724-afd2-4a00-8d2e-c87448cad135"/>
@@ -27155,25 +27159,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
-      <UserInfo>
-        <DisplayName>Christine Reid</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Liam Plummer</DisplayName>
-        <AccountId>63</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -27184,6 +27169,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6617C3D-29D9-48EE-BF3C-21AA1A387073}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27202,16 +27197,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
   <ds:schemaRefs>
